--- a/data/trans_orig/P6712-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>7175</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2948</v>
+        <v>2975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13749</v>
+        <v>14156</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03939811956237207</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01618634323480983</v>
+        <v>0.01633851279965019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07550187001002753</v>
+        <v>0.07773498845386419</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>11100</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5978</v>
+        <v>6177</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21455</v>
+        <v>19483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08219576331462608</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04426356218767707</v>
+        <v>0.04574229969227164</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1588717255502644</v>
+        <v>0.1442713631575642</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -784,19 +784,19 @@
         <v>18275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11491</v>
+        <v>11368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29081</v>
+        <v>29148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05762184892629489</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.036230487311206</v>
+        <v>0.03584524010762127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09169418971169395</v>
+        <v>0.09190536541897079</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>11555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6143</v>
+        <v>6335</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21265</v>
+        <v>21232</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06345162392499351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03373465562588038</v>
+        <v>0.03478513535118141</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1167714488105768</v>
+        <v>0.1165939550437617</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -834,19 +834,19 @@
         <v>6509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3070</v>
+        <v>2294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13207</v>
+        <v>13338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04819742204237532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02273182565934487</v>
+        <v>0.01698933488955663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0977967163423389</v>
+        <v>0.09876245543285427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -855,19 +855,19 @@
         <v>18064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10814</v>
+        <v>10946</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28603</v>
+        <v>28775</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05695620916850156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03409614381187956</v>
+        <v>0.03451404380219222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09018725982691285</v>
+        <v>0.09072849167312806</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>28831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18985</v>
+        <v>19210</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40739</v>
+        <v>40715</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1583190715337277</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1042538801595347</v>
+        <v>0.1054874091419696</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2237120458496157</v>
+        <v>0.2235800454982221</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -905,19 +905,19 @@
         <v>20322</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12734</v>
+        <v>12869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29809</v>
+        <v>29727</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1504845481000506</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0942908787941331</v>
+        <v>0.09529612811612724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2207285757292737</v>
+        <v>0.2201240342489745</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -926,19 +926,19 @@
         <v>49153</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36438</v>
+        <v>36589</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>63924</v>
+        <v>64973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1549830412705401</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1148919086424432</v>
+        <v>0.1153679495140309</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2015559254838518</v>
+        <v>0.2048642050203481</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>40426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29766</v>
+        <v>29930</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52401</v>
+        <v>53542</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2219935189946077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1634570865657354</v>
+        <v>0.1643583498114506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2877500238999984</v>
+        <v>0.2940199176571804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -976,19 +976,19 @@
         <v>21020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12847</v>
+        <v>14191</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31034</v>
+        <v>31486</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1556485655622424</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09512617947040257</v>
+        <v>0.105083484606288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2297987893624824</v>
+        <v>0.2331465533265862</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -997,19 +997,19 @@
         <v>61446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47259</v>
+        <v>49075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76036</v>
+        <v>77664</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1937430741100149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1490094684525896</v>
+        <v>0.1547372522698132</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2397466904973929</v>
+        <v>0.2448803124739767</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>94119</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80766</v>
+        <v>80192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107959</v>
+        <v>108412</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5168376659842991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4435130468171087</v>
+        <v>0.4403591184747032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5928419597295655</v>
+        <v>0.5953280940349259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>71</v>
@@ -1047,19 +1047,19 @@
         <v>76095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64899</v>
+        <v>63746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88519</v>
+        <v>87405</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5634737009807056</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4805640804025727</v>
+        <v>0.472025350286878</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6554682243756583</v>
+        <v>0.647217031269677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>163</v>
@@ -1068,19 +1068,19 @@
         <v>170214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152187</v>
+        <v>151729</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>187501</v>
+        <v>189421</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5366958265246486</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4798580698009538</v>
+        <v>0.4784120610408528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5912051793536567</v>
+        <v>0.5972587406211061</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>45003</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33215</v>
+        <v>32840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>59421</v>
+        <v>60774</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04942488774956771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03647849577335265</v>
+        <v>0.03606630933420923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06525901481418152</v>
+        <v>0.06674475840413548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1193,19 +1193,19 @@
         <v>25750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16950</v>
+        <v>17006</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36379</v>
+        <v>37722</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04519509655833257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02974967144436295</v>
+        <v>0.02984732533898988</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06384956891791585</v>
+        <v>0.06620649460007103</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1214,19 +1214,19 @@
         <v>70754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56549</v>
+        <v>56869</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90144</v>
+        <v>89586</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04779686130116984</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03820084499436868</v>
+        <v>0.03841682902746953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06089535609698192</v>
+        <v>0.06051834288790039</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>41664</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30770</v>
+        <v>30706</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55847</v>
+        <v>56721</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04575785984664052</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0337929356135838</v>
+        <v>0.03372282788572965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06133360819429335</v>
+        <v>0.06229328910937396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1264,19 +1264,19 @@
         <v>28193</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19470</v>
+        <v>19207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40525</v>
+        <v>40332</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04948161889183471</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03417198236471027</v>
+        <v>0.03371005941612738</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07112680031877458</v>
+        <v>0.07078746898791727</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -1285,19 +1285,19 @@
         <v>69857</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54851</v>
+        <v>54481</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87300</v>
+        <v>88450</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04719111693639929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03705365809060882</v>
+        <v>0.03680388237575715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05897412327960833</v>
+        <v>0.0597513821569535</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>165242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>143248</v>
+        <v>142969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>188489</v>
+        <v>191976</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1814763298303114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1573214384640153</v>
+        <v>0.1570155403992557</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2070070621326249</v>
+        <v>0.2108365399014739</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -1335,19 +1335,19 @@
         <v>113393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>95253</v>
+        <v>95844</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>133964</v>
+        <v>133534</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1990182812109862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1671809050873544</v>
+        <v>0.1682176599763281</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2351228543972183</v>
+        <v>0.2343672226450494</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>265</v>
@@ -1356,19 +1356,19 @@
         <v>278635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>247872</v>
+        <v>246391</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>310388</v>
+        <v>310549</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.18822814322087</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.167446857274659</v>
+        <v>0.1664464185910835</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2096784019802213</v>
+        <v>0.2097873343319218</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>225121</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>198686</v>
+        <v>199023</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>254184</v>
+        <v>252232</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2472382927974953</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2182058094587531</v>
+        <v>0.2185762786835748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2791570572571194</v>
+        <v>0.2770135152897207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -1406,19 +1406,19 @@
         <v>170858</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>149938</v>
+        <v>151641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194451</v>
+        <v>194760</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2998768039558256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2631582339488844</v>
+        <v>0.2661485541304863</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3412841101549531</v>
+        <v>0.3418275141627715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>374</v>
@@ -1427,19 +1427,19 @@
         <v>395979</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>361295</v>
+        <v>360861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>429887</v>
+        <v>433404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2674986045943583</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2440678156602429</v>
+        <v>0.2437749868782852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2904045397506941</v>
+        <v>0.292780597319135</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>433511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>405062</v>
+        <v>401900</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>464773</v>
+        <v>464667</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4761026297759851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4448581476981633</v>
+        <v>0.4413858504685444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5104351775309927</v>
+        <v>0.5103195064528141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>219</v>
@@ -1477,19 +1477,19 @@
         <v>231567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>206982</v>
+        <v>207673</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>254773</v>
+        <v>256054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.406428199383021</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3632777100642657</v>
+        <v>0.3644914043988375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4471562470343405</v>
+        <v>0.4494055214443436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>624</v>
@@ -1498,19 +1498,19 @@
         <v>665079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>621769</v>
+        <v>626166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>705200</v>
+        <v>703254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4492852739472026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.420028246628575</v>
+        <v>0.4229979586208336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4763884959704158</v>
+        <v>0.4750739837851167</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>7366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3212</v>
+        <v>3069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15203</v>
+        <v>15200</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02329157369605193</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01015611269886807</v>
+        <v>0.009703538689129572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04807298963741789</v>
+        <v>0.04806074760767991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1623,19 +1623,19 @@
         <v>6021</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2128</v>
+        <v>2082</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12280</v>
+        <v>12756</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02585157214508448</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009136813841978189</v>
+        <v>0.008939628137329989</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05272659509486553</v>
+        <v>0.05477026878972756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1644,19 +1644,19 @@
         <v>13387</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7456</v>
+        <v>7313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22400</v>
+        <v>23384</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02437729131441528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01357739422976024</v>
+        <v>0.01331586458713813</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.040790206603483</v>
+        <v>0.04258166146991042</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>12122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5980</v>
+        <v>6141</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21555</v>
+        <v>22296</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03832952883311043</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01890727639979464</v>
+        <v>0.01941701437927987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06815690977775288</v>
+        <v>0.07049808488109233</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1694,19 +1694,19 @@
         <v>4917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1800</v>
+        <v>998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13603</v>
+        <v>11890</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02111032178245715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007729620243035318</v>
+        <v>0.004286506949013155</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05840468872509344</v>
+        <v>0.05104910840023529</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1715,19 +1715,19 @@
         <v>17039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9080</v>
+        <v>9596</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28029</v>
+        <v>28917</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03102671328796593</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01653491930494354</v>
+        <v>0.01747325784030332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05103876840975879</v>
+        <v>0.05265706771753847</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>27441</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17873</v>
+        <v>16675</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39747</v>
+        <v>39504</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08676867272035395</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05651480289325969</v>
+        <v>0.0527258059809491</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1256794397720383</v>
+        <v>0.1249120047500459</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -1765,19 +1765,19 @@
         <v>29337</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20255</v>
+        <v>19213</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42480</v>
+        <v>41588</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1259601834533967</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08696528859403416</v>
+        <v>0.08249290039806108</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1823908253287159</v>
+        <v>0.1785635537372719</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>49</v>
@@ -1786,19 +1786,19 @@
         <v>56778</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42633</v>
+        <v>42896</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76798</v>
+        <v>75809</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1033901334517936</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0776335087279067</v>
+        <v>0.07811183907442058</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1398464058165702</v>
+        <v>0.1380447353439247</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>67516</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53956</v>
+        <v>53739</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83109</v>
+        <v>82757</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2134832527226655</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1706067296089741</v>
+        <v>0.1699231296617936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2627888351678646</v>
+        <v>0.2616753942432395</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1836,19 +1836,19 @@
         <v>50058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37428</v>
+        <v>36662</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65087</v>
+        <v>63811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2149293031973314</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.16069973833192</v>
+        <v>0.1574120722105687</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2794584430112791</v>
+        <v>0.2739819522943465</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>111</v>
@@ -1857,19 +1857,19 @@
         <v>117573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99447</v>
+        <v>99344</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137219</v>
+        <v>139106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2140965353119502</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.181088910149772</v>
+        <v>0.180901783553498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2498693983912193</v>
+        <v>0.2533070234927325</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>201812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>182137</v>
+        <v>180187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>218964</v>
+        <v>217663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6381269720278182</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5759132995667671</v>
+        <v>0.5697480414856755</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6923619041922671</v>
+        <v>0.6882485548525782</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -1907,19 +1907,19 @@
         <v>142572</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>127496</v>
+        <v>126134</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159445</v>
+        <v>158166</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6121486194217303</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5474184286487007</v>
+        <v>0.5415717321780892</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6845960674386321</v>
+        <v>0.6791040926689663</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>307</v>
@@ -1928,19 +1928,19 @@
         <v>344384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>320255</v>
+        <v>320212</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>367610</v>
+        <v>367866</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6271093266338751</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5831707736722729</v>
+        <v>0.5830924899351834</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6694033557521342</v>
+        <v>0.6698689275532315</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>59544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45396</v>
+        <v>45388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77321</v>
+        <v>75201</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04226274425922835</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03222080265439421</v>
+        <v>0.03221501266943608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05488027551275852</v>
+        <v>0.05337586466280956</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2053,19 +2053,19 @@
         <v>42872</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31058</v>
+        <v>30430</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58938</v>
+        <v>57038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04571938526084868</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03312049771296002</v>
+        <v>0.0324510310530219</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06285293886449875</v>
+        <v>0.06082696055670488</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>97</v>
@@ -2074,19 +2074,19 @@
         <v>102416</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84847</v>
+        <v>83538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128307</v>
+        <v>123188</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0436440249580812</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03615698629262092</v>
+        <v>0.03559945618479433</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05467753248086259</v>
+        <v>0.05249595951481809</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>65341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50567</v>
+        <v>49411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82993</v>
+        <v>81775</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04637738669007708</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0358911680383194</v>
+        <v>0.0350702833771304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05890572570882589</v>
+        <v>0.05804138832206912</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2124,19 +2124,19 @@
         <v>39618</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27545</v>
+        <v>28267</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>53020</v>
+        <v>54135</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04224995993443147</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02937464221802795</v>
+        <v>0.03014446412374788</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05654153817543255</v>
+        <v>0.05773094292958586</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>95</v>
@@ -2145,19 +2145,19 @@
         <v>104960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>85212</v>
+        <v>86471</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>127549</v>
+        <v>127824</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04472805865432512</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03631285833072619</v>
+        <v>0.03684913922738078</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05435422366033295</v>
+        <v>0.05447159632240513</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>221514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>192915</v>
+        <v>192334</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>249517</v>
+        <v>252261</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1572241222852332</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1369258667521153</v>
+        <v>0.136513450834043</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1771003471213683</v>
+        <v>0.1790478160339328</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>150</v>
@@ -2195,19 +2195,19 @@
         <v>163052</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>139783</v>
+        <v>142258</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>189076</v>
+        <v>189414</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1738828073295569</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1490675315315921</v>
+        <v>0.1517071494581983</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.201635770286396</v>
+        <v>0.2019954809332986</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>358</v>
@@ -2216,19 +2216,19 @@
         <v>384566</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>351574</v>
+        <v>350917</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>429841</v>
+        <v>419558</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1638809663454659</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1498215852078982</v>
+        <v>0.149541685876787</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.183174713020548</v>
+        <v>0.1787928973033114</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>333063</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>301513</v>
+        <v>303953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>369758</v>
+        <v>368221</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.236398328265873</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2140053607058373</v>
+        <v>0.2157374735561209</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2624440382721347</v>
+        <v>0.2613529864439656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>221</v>
@@ -2266,19 +2266,19 @@
         <v>241936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>211034</v>
+        <v>213379</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>270500</v>
+        <v>271870</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2580066523622631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2250515655348274</v>
+        <v>0.2275524907792364</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2884674545388247</v>
+        <v>0.2899289855939919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>544</v>
@@ -2287,19 +2287,19 @@
         <v>574999</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>531854</v>
+        <v>532839</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>617229</v>
+        <v>615109</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2450330580497613</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2266471733052099</v>
+        <v>0.2270670273320308</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2630294879996671</v>
+        <v>0.2621257740056374</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>729442</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>690483</v>
+        <v>687083</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767924</v>
+        <v>768317</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5177374184995884</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4900848874656353</v>
+        <v>0.4876717024790337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5450508035106111</v>
+        <v>0.5453297289224148</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>419</v>
@@ -2337,19 +2337,19 @@
         <v>450235</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>418760</v>
+        <v>418607</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>483633</v>
+        <v>481361</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4801411951128999</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4465763755084542</v>
+        <v>0.4464128677758722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5157581015683872</v>
+        <v>0.5133347247904375</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1094</v>
@@ -2358,19 +2358,19 @@
         <v>1179677</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1131243</v>
+        <v>1132545</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1230484</v>
+        <v>1228984</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5027138919923665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4820740515068857</v>
+        <v>0.48262899251611</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5243650064414804</v>
+        <v>0.5237259469434787</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>16605</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10181</v>
+        <v>9767</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27133</v>
+        <v>25329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.117514291446232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0720514743184726</v>
+        <v>0.06912306030480496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1920274664829677</v>
+        <v>0.179260357441763</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2722,19 +2722,19 @@
         <v>8150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4056</v>
+        <v>3897</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15169</v>
+        <v>14685</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1178922709064662</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05867649871730767</v>
+        <v>0.05637818036658515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2194332746646445</v>
+        <v>0.2124265005018546</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -2743,19 +2743,19 @@
         <v>24754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17082</v>
+        <v>16251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36417</v>
+        <v>35398</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1176384630666892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08117607102500229</v>
+        <v>0.07722792838562109</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1730605553676398</v>
+        <v>0.1682205862893749</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>16930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10288</v>
+        <v>10644</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27243</v>
+        <v>26897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1198174505603989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07280743852151023</v>
+        <v>0.07533303012388247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1928073166924254</v>
+        <v>0.1903584076653738</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2793,19 +2793,19 @@
         <v>7898</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4032</v>
+        <v>3773</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14621</v>
+        <v>13836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1142561642464687</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0583292689584833</v>
+        <v>0.05457469394218329</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2115100465449599</v>
+        <v>0.2001557452967435</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -2814,19 +2814,19 @@
         <v>24828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16395</v>
+        <v>17027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35929</v>
+        <v>35199</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1179904890292106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07791115960065895</v>
+        <v>0.08091682681298704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1707415561846118</v>
+        <v>0.1672752701882827</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>32138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22078</v>
+        <v>22347</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43034</v>
+        <v>43066</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2274445208064128</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1562521688371988</v>
+        <v>0.1581571869781124</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3045614730608286</v>
+        <v>0.3047887266346625</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -2864,19 +2864,19 @@
         <v>23977</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17556</v>
+        <v>16278</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33346</v>
+        <v>31155</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3468428572947708</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2539688259707057</v>
+        <v>0.2354800909608275</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4823746750856787</v>
+        <v>0.450687651418657</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -2885,19 +2885,19 @@
         <v>56114</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43997</v>
+        <v>44240</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>70390</v>
+        <v>71684</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2666685699451359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2090860405644357</v>
+        <v>0.2102412208895804</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3345114628519978</v>
+        <v>0.3406609133067216</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>29713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20979</v>
+        <v>20330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39643</v>
+        <v>40860</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2102873667105884</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.148474297186794</v>
+        <v>0.1438772494337015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2805632698970951</v>
+        <v>0.2891741320035736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2935,19 +2935,19 @@
         <v>12758</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7029</v>
+        <v>6873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20221</v>
+        <v>19665</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.184562472867027</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1016881540673124</v>
+        <v>0.09942366917210499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2925089773850686</v>
+        <v>0.284474484809247</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -2956,19 +2956,19 @@
         <v>42472</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31887</v>
+        <v>31809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57124</v>
+        <v>55058</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2018363737580469</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1515351845314887</v>
+        <v>0.1511651764287745</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2714688386890798</v>
+        <v>0.2616471626622166</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>45913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34722</v>
+        <v>35012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58395</v>
+        <v>58793</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3249363704763679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2457310961037432</v>
+        <v>0.2477861229537418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4132701073102006</v>
+        <v>0.4160876030380404</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3006,19 +3006,19 @@
         <v>16345</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9950</v>
+        <v>10094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23776</v>
+        <v>23815</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2364462346852674</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1439374791608725</v>
+        <v>0.1460220915849982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3439419286563676</v>
+        <v>0.3445083615888941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -3027,19 +3027,19 @@
         <v>62258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48786</v>
+        <v>48025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76902</v>
+        <v>75299</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2958661042009174</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2318432646744772</v>
+        <v>0.2282247507107197</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3654565866460043</v>
+        <v>0.3578366928538767</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>43544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31984</v>
+        <v>31580</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58192</v>
+        <v>59422</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04716658787769004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03464487559472707</v>
+        <v>0.03420701545129411</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06303315493957223</v>
+        <v>0.06436545549899508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3152,19 +3152,19 @@
         <v>38819</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27933</v>
+        <v>28808</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52796</v>
+        <v>52202</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05967156011629658</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04293723201709462</v>
+        <v>0.04428321502259887</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.081156310715803</v>
+        <v>0.08024317545867338</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -3173,19 +3173,19 @@
         <v>82363</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65678</v>
+        <v>65333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103614</v>
+        <v>102321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05233580480561749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04173338722259923</v>
+        <v>0.04151424285602068</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06583901035949852</v>
+        <v>0.06501773720567534</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>82863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66110</v>
+        <v>66355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100728</v>
+        <v>102618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08975569513046477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07161006899076172</v>
+        <v>0.07187535859295499</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1091069956240831</v>
+        <v>0.1111547293091081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -3223,19 +3223,19 @@
         <v>71009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56407</v>
+        <v>57036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89861</v>
+        <v>87771</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1091541057249008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08670822548908365</v>
+        <v>0.08767513190465685</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1381328998510393</v>
+        <v>0.1349202840564181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>149</v>
@@ -3244,19 +3244,19 @@
         <v>153872</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130164</v>
+        <v>132322</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>178395</v>
+        <v>178416</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09777447282195524</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08270971159242023</v>
+        <v>0.08408090966082744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1133569597517975</v>
+        <v>0.1133705216168191</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>211883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>184313</v>
+        <v>185607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>237009</v>
+        <v>239861</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2295089798381802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1996453582271486</v>
+        <v>0.2010472625059696</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2567248772739258</v>
+        <v>0.2598145798043283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>153</v>
@@ -3294,19 +3294,19 @@
         <v>152100</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>133082</v>
+        <v>132859</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>177920</v>
+        <v>175485</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2338052681657086</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2045701783855635</v>
+        <v>0.2042276038037609</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2734943186957405</v>
+        <v>0.2697519117359297</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>351</v>
@@ -3315,19 +3315,19 @@
         <v>363984</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>331664</v>
+        <v>329371</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>397731</v>
+        <v>397750</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2312849491027382</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2107484773887327</v>
+        <v>0.2092910725702934</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2527292614521623</v>
+        <v>0.2527408386171459</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>277830</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249532</v>
+        <v>247353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>305565</v>
+        <v>305467</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3009423055312777</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2702897257072186</v>
+        <v>0.2679297641902872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3309838089453079</v>
+        <v>0.3308780563314632</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -3365,19 +3365,19 @@
         <v>198893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>175943</v>
+        <v>175564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223810</v>
+        <v>222366</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3057331630815608</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2704553232338446</v>
+        <v>0.269872672347579</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3440364288264864</v>
+        <v>0.3418162852186354</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>460</v>
@@ -3386,19 +3386,19 @@
         <v>476723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>444652</v>
+        <v>441898</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>515385</v>
+        <v>514912</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3029227163211358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2825439604829449</v>
+        <v>0.2807939316358259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3274895354924653</v>
+        <v>0.3271892712287305</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>307081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>278345</v>
+        <v>278145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334721</v>
+        <v>336450</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3326264316223874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3014999775211598</v>
+        <v>0.3012836838567683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3625659134155614</v>
+        <v>0.3644386610261943</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -3436,19 +3436,19 @@
         <v>189722</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168846</v>
+        <v>166327</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>215339</v>
+        <v>215246</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2916359029115332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2595460468510797</v>
+        <v>0.2556747068265095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3310135380340533</v>
+        <v>0.3308716753696383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>463</v>
@@ -3457,19 +3457,19 @@
         <v>496803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>460643</v>
+        <v>460404</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>538347</v>
+        <v>534635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3156820569485533</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.292704771791109</v>
+        <v>0.2925530317295467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3420799745045996</v>
+        <v>0.3397212726621016</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>7999</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3087</v>
+        <v>3882</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15773</v>
+        <v>15652</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0229579925136621</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008859914922928288</v>
+        <v>0.01114036316785728</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04526912675271266</v>
+        <v>0.04492037707264487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3582,19 +3582,19 @@
         <v>10831</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5521</v>
+        <v>5433</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18766</v>
+        <v>19532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03511394160700302</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01789817812083652</v>
+        <v>0.01761319021046955</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06084049896421022</v>
+        <v>0.06332402690080749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -3603,19 +3603,19 @@
         <v>18830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11937</v>
+        <v>12093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30140</v>
+        <v>30584</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02866600164230991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01817169201770789</v>
+        <v>0.01840891348402998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04588338141708808</v>
+        <v>0.04655807841589214</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>23934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15871</v>
+        <v>15365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35148</v>
+        <v>35134</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06868822620810172</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04554921502729144</v>
+        <v>0.04409820056509099</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1008721622850397</v>
+        <v>0.1008329077850796</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -3653,19 +3653,19 @@
         <v>22820</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14905</v>
+        <v>15645</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34467</v>
+        <v>33980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07398073156147568</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0483231399487651</v>
+        <v>0.05071991601222581</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1117429420293578</v>
+        <v>0.110163611641858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -3674,19 +3674,19 @@
         <v>46753</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34681</v>
+        <v>34236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61691</v>
+        <v>61662</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07117340187299694</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05279563399398324</v>
+        <v>0.05211810361788623</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09391416216617043</v>
+        <v>0.09386899542666363</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>60815</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47825</v>
+        <v>46961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78349</v>
+        <v>78511</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1745372887972952</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1372548346991186</v>
+        <v>0.134775192893044</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.22485740727659</v>
+        <v>0.2253231202292063</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -3724,19 +3724,19 @@
         <v>51670</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39970</v>
+        <v>39974</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65225</v>
+        <v>65206</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1675134674965444</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1295814756755177</v>
+        <v>0.1295958580092238</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2114593809401275</v>
+        <v>0.2113970066716417</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -3745,19 +3745,19 @@
         <v>112485</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>93739</v>
+        <v>92736</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>133316</v>
+        <v>134377</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1712391476324363</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.142700896118755</v>
+        <v>0.1411736447033553</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2029498498072929</v>
+        <v>0.2045654852072162</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>83793</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>67282</v>
+        <v>67643</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100516</v>
+        <v>99979</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2404832275611693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.193096390135616</v>
+        <v>0.1941332833465321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2884766458952814</v>
+        <v>0.2869351769506578</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -3795,19 +3795,19 @@
         <v>63324</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50549</v>
+        <v>49073</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78093</v>
+        <v>77656</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2052962356847808</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1638794921095555</v>
+        <v>0.1590936977352875</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2531776149430722</v>
+        <v>0.2517595352960627</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>140</v>
@@ -3816,19 +3816,19 @@
         <v>147118</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125651</v>
+        <v>125905</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168870</v>
+        <v>169663</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2239606451368889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1912816729296885</v>
+        <v>0.1916687794429914</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2570746367417606</v>
+        <v>0.2582812301734133</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>171896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150343</v>
+        <v>152929</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189676</v>
+        <v>190932</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4933332649197718</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.431476024157178</v>
+        <v>0.4388985679202786</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5443618746792007</v>
+        <v>0.547966306716696</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>153</v>
@@ -3866,19 +3866,19 @@
         <v>159808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>141534</v>
+        <v>142244</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177341</v>
+        <v>177046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5180956236501961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.45885036748069</v>
+        <v>0.461153856210803</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5749353878468065</v>
+        <v>0.5739798855272493</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>312</v>
@@ -3887,19 +3887,19 @@
         <v>331704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>305422</v>
+        <v>304547</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>358079</v>
+        <v>357103</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5049608037153679</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4649505217748079</v>
+        <v>0.4636181609725156</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5451118782777299</v>
+        <v>0.5436262520741814</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>68148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53717</v>
+        <v>51472</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86704</v>
+        <v>87491</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04823163842139193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03801815734149704</v>
+        <v>0.03642887989607424</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06136457895263739</v>
+        <v>0.06192101869974277</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -4012,19 +4012,19 @@
         <v>57800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44102</v>
+        <v>43163</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73473</v>
+        <v>73414</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05621849925866555</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04289512275977669</v>
+        <v>0.04198262988552951</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07146336687041514</v>
+        <v>0.07140565006377583</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>117</v>
@@ -4033,19 +4033,19 @@
         <v>125948</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104152</v>
+        <v>102757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147964</v>
+        <v>149637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0515955379004634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04266676043213638</v>
+        <v>0.04209533456769887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06061467634241518</v>
+        <v>0.06130013084198611</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>123726</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104182</v>
+        <v>102793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>148302</v>
+        <v>147226</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0875666267238206</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07373462037517363</v>
+        <v>0.07275155348443818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1049599026285151</v>
+        <v>0.1041986214206922</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>103</v>
@@ -4083,19 +4083,19 @@
         <v>101727</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>84986</v>
+        <v>83251</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>122703</v>
+        <v>121147</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09894460348771328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08266148542583661</v>
+        <v>0.08097326063737618</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1193464942069112</v>
+        <v>0.1178326107076673</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>218</v>
@@ -4104,19 +4104,19 @@
         <v>225454</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>196148</v>
+        <v>200021</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>254421</v>
+        <v>256217</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09235879362002147</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08035366409779968</v>
+        <v>0.08194026406095167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1042255404289719</v>
+        <v>0.1049614197995747</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>304836</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>273696</v>
+        <v>274631</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>338105</v>
+        <v>335888</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.215746213797735</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1937072587392157</v>
+        <v>0.1943688824253726</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2392923129756612</v>
+        <v>0.2377232737674706</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>228</v>
@@ -4154,19 +4154,19 @@
         <v>227747</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>203611</v>
+        <v>200526</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>254425</v>
+        <v>254257</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2215170501028953</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1980413350012949</v>
+        <v>0.1950404690086094</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2474652605071215</v>
+        <v>0.2473020151270875</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>509</v>
@@ -4175,19 +4175,19 @@
         <v>532583</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>493379</v>
+        <v>487625</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>573554</v>
+        <v>574116</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2181767698868232</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2021164016712139</v>
+        <v>0.1997592002127804</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2349605550830654</v>
+        <v>0.2351910873971012</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>391337</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>356225</v>
+        <v>355922</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>424127</v>
+        <v>429162</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2769669587502334</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2521163019154199</v>
+        <v>0.2519018025386572</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3001735899752719</v>
+        <v>0.3037373728304869</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>269</v>
@@ -4225,19 +4225,19 @@
         <v>274975</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>247243</v>
+        <v>246838</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305306</v>
+        <v>302366</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2674533633265183</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2404796386182808</v>
+        <v>0.2400851345110169</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2969543147885682</v>
+        <v>0.294094964286388</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>642</v>
@@ -4246,19 +4246,19 @@
         <v>666313</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>621867</v>
+        <v>620624</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>713888</v>
+        <v>710817</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2729600304536267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2547526934377666</v>
+        <v>0.2542432141935725</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.292449525855412</v>
+        <v>0.2911915508018179</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>524890</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>490970</v>
+        <v>487726</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>565610</v>
+        <v>561984</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.371488562306819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3474815615694262</v>
+        <v>0.3451857601622233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4003076823660094</v>
+        <v>0.3977413954245261</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>348</v>
@@ -4296,19 +4296,19 @@
         <v>365875</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>335980</v>
+        <v>336691</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>396287</v>
+        <v>398514</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3558664838242076</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3267885729364749</v>
+        <v>0.3274809300503415</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3854464269911863</v>
+        <v>0.3876120033882715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>832</v>
@@ -4317,19 +4317,19 @@
         <v>890766</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>848905</v>
+        <v>841347</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>941501</v>
+        <v>939779</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3649088681390653</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3477602346389749</v>
+        <v>0.344664099804632</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3856932143072973</v>
+        <v>0.3849874640654076</v>
       </c>
     </row>
     <row r="27">
